--- a/ResultadoEleicoesDistritos/GUARDA_TRANCOSO.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_TRANCOSO.xlsx
@@ -597,64 +597,64 @@
         <v>2551</v>
       </c>
       <c r="H2" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J2" t="n">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="T2" t="n">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
-        <v>1552</v>
+        <v>1625</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1690</v>
+        <v>1614</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
